--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1845490.494367341</v>
+        <v>1949670.128818413</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9968920.06193611</v>
+        <v>9968920.061936108</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>239.1828520871927</v>
       </c>
       <c r="D2" t="n">
-        <v>75.4571321610379</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -750,10 +752,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657078</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851092</v>
       </c>
       <c r="I3" t="n">
         <v>18.81721868247742</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>138.2333827272359</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>113.4448687040858</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6667577510700857</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>28.90798465780367</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>94.57983363107962</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>43.27317399560221</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1139,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>100.5205878903132</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>27.55805524026523</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>7.643704068985021</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>56.84567055630611</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695545</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881288</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784692</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560538</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>61.44013021075155</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.294712846224</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856569</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012183</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016448</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238282</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.584653352095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1768,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>10.58364443467423</v>
       </c>
       <c r="Y16" t="n">
-        <v>156.2292142534457</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2005,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>1.799772605717294</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673027</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2476,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>65.56423921895123</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>164.9367233701397</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695513</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819371</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856536</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272881</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238278</v>
+        <v>70.40964990483397</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>42.7612371908061</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2950,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.825382616192478</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>16.09765778288691</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3187,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>123.9815576456788</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,13 +3240,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>117.2645540643881</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3269,10 +3271,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>176.8394623191198</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3430,7 +3432,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3439,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>15.09910835322215</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3484,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3670,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>5.421623586788372</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>71.99884436925691</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>63.16281301712318</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3955,16 +3957,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>270.6404040473988</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520978</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560526</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4141,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>25.52471385612599</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943748</v>
+        <v>2217.803762225667</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.370295943748</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4328,25 +4330,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052369</v>
@@ -4355,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>2604.403602289789</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4400,7 @@
         <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064548</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>692.8974549201677</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="C4" t="n">
-        <v>523.9612719922608</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="D4" t="n">
-        <v>373.844632579925</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E4" t="n">
-        <v>373.844632579925</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218343</v>
@@ -4522,16 +4524,16 @@
         <v>920.887005818185</v>
       </c>
       <c r="V4" t="n">
-        <v>920.887005818185</v>
+        <v>806.2962293494114</v>
       </c>
       <c r="W4" t="n">
-        <v>920.887005818185</v>
+        <v>806.2962293494114</v>
       </c>
       <c r="X4" t="n">
-        <v>692.8974549201677</v>
+        <v>806.2962293494114</v>
       </c>
       <c r="Y4" t="n">
-        <v>692.8974549201677</v>
+        <v>806.2962293494114</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>510.784551090019</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>95.71210093501543</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>95.71210093501543</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4592,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3072.075344883008</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2719.306689612893</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2345.840931351814</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.840931351814</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>214.4252100145765</v>
+        <v>920.887005818185</v>
       </c>
       <c r="C7" t="n">
-        <v>214.4252100145765</v>
+        <v>920.887005818185</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>770.7703664058492</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>622.8572728234561</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>475.9673253255457</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>308.2644887002647</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>162.0473019181225</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4750,25 +4752,25 @@
         <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450114</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>729.2011216450114</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>729.2011216450114</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>685.4908448817769</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>396.0736748448163</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>396.0736748448163</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>396.0736748448163</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1734.047335491681</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C8" t="n">
-        <v>1365.08481855127</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D8" t="n">
-        <v>1006.819119944519</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E8" t="n">
-        <v>621.030867346275</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>210.0449625566675</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4799,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3297.76940217456</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3091.791654558782</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3091.791654558782</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>2760.728767215212</v>
       </c>
       <c r="W8" t="n">
-        <v>2884.252265792695</v>
+        <v>2407.960111945097</v>
       </c>
       <c r="X8" t="n">
-        <v>2510.786507531615</v>
+        <v>2034.494353684017</v>
       </c>
       <c r="Y8" t="n">
-        <v>2120.647175555803</v>
+        <v>1644.355021708206</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>292.8681686088844</v>
+        <v>222.1461232155715</v>
       </c>
       <c r="C10" t="n">
-        <v>123.9319856809775</v>
+        <v>222.1461232155715</v>
       </c>
       <c r="D10" t="n">
-        <v>123.9319856809775</v>
+        <v>222.1461232155715</v>
       </c>
       <c r="E10" t="n">
-        <v>123.9319856809775</v>
+        <v>74.2330296331784</v>
       </c>
       <c r="F10" t="n">
-        <v>123.9319856809775</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>123.9319856809775</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>729.201121645011</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>729.201121645011</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>729.201121645011</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V10" t="n">
-        <v>474.5166334391241</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="W10" t="n">
-        <v>474.5166334391241</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="X10" t="n">
-        <v>474.5166334391241</v>
+        <v>403.7945880458112</v>
       </c>
       <c r="Y10" t="n">
-        <v>474.5166334391241</v>
+        <v>403.7945880458112</v>
       </c>
     </row>
     <row r="11">
@@ -5021,40 +5023,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5121,25 +5123,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>454.6048385560544</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>949.9304447718132</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>633.4413279836781</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>464.505145055771</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>464.505145055771</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>464.505145055771</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578605</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578605</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000584</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853347</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580246</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832649</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487553</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510494</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854692</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648805</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611844</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138261</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655702958</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5273,31 +5275,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5358,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>680.0291294438171</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>576.8388927589092</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C16" t="n">
-        <v>407.9027098310023</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y16" t="n">
-        <v>758.4873575891489</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5513,10 +5515,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5555,7 +5557,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,25 +5597,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5653,16 +5655,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5729,40 +5731,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,28 +5773,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2757.723669558405</v>
+        <v>2815.530845237133</v>
       </c>
       <c r="C22" t="n">
-        <v>2588.787486630498</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="D22" t="n">
-        <v>2588.787486630498</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="E22" t="n">
-        <v>2588.787486630498</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="F22" t="n">
-        <v>2588.787486630498</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G22" t="n">
-        <v>2421.591387345378</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I22" t="n">
         <v>2337.686731866304</v>
@@ -5941,19 +5943,19 @@
         <v>4221.331149328841</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>3990.063098351768</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>3735.378610145881</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>3445.96144010892</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>3217.971889210903</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388645</v>
+        <v>2997.179310067373</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6072,19 +6074,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.2707707770319</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C25" t="n">
-        <v>634.334587849125</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D25" t="n">
-        <v>484.2179484367892</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>484.2179484367892</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>484.2179484367892</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750802</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.9192356072716</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6251,16 +6253,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852888</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>1577.52840832642</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3192.420589669513</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C28" t="n">
-        <v>3023.484406741606</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741606</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159213</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661303</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376183</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218381</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866295</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296619</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822157</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998098</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398593</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>4471.231687421534</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U28" t="n">
-        <v>4182.156460765732</v>
+        <v>4151.857387650098</v>
       </c>
       <c r="V28" t="n">
-        <v>3927.471972559845</v>
+        <v>4080.736529160366</v>
       </c>
       <c r="W28" t="n">
-        <v>3638.054802522885</v>
+        <v>3791.319359123406</v>
       </c>
       <c r="X28" t="n">
-        <v>3594.861633643282</v>
+        <v>3563.329808225389</v>
       </c>
       <c r="Y28" t="n">
-        <v>3374.069054499752</v>
+        <v>3342.537229081859</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6482,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6546,19 +6548,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2824.769373306002</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C31" t="n">
-        <v>2655.833190378095</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D31" t="n">
-        <v>2505.716550965759</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E31" t="n">
-        <v>2505.716550965759</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>2505.716550965759</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>2338.520451680639</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053497</v>
+        <v>2363.657119445908</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076438</v>
+        <v>2144.05565446885</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420636</v>
+        <v>1854.980427813048</v>
       </c>
       <c r="V31" t="n">
-        <v>3744.61713821475</v>
+        <v>1600.295939607161</v>
       </c>
       <c r="W31" t="n">
-        <v>3455.199968177789</v>
+        <v>1310.8787695702</v>
       </c>
       <c r="X31" t="n">
-        <v>3227.210417279772</v>
+        <v>1082.889218672183</v>
       </c>
       <c r="Y31" t="n">
-        <v>3006.417838136242</v>
+        <v>862.0966395286528</v>
       </c>
     </row>
     <row r="32">
@@ -6680,55 +6682,55 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C33" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D33" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913445</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913445</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>2490.323821483079</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>3087.702309109631</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>3715.300272664238</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>4267.210002903525</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R33" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S33" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T33" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U33" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V33" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W33" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y33" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C34" t="n">
-        <v>2757.723669558405</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D34" t="n">
-        <v>2632.489772946608</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>2484.576679364215</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866304</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782912</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038298</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797699</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2078.61350097808</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6929,7 +6931,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
@@ -6938,16 +6940,16 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6958,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>699.7311804011399</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C37" t="n">
-        <v>699.7311804011399</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="D37" t="n">
-        <v>549.6145409888042</v>
+        <v>653.1541313646961</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>505.241037782303</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>358.3510902843926</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>191.1549909992726</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7102,43 +7104,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832658</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.3159148556</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199797</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.55619999391</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.13902995695</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058932</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154023</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="38">
@@ -7163,52 +7165,52 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852888</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>956.9553291057244</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C40" t="n">
-        <v>788.0191461778176</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>99.29305050937427</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X40" t="n">
-        <v>1138.603793935964</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y40" t="n">
-        <v>1138.603793935964</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>631.7012443408905</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C43" t="n">
-        <v>631.7012443408905</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408905</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7603,16 +7605,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703079</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="44">
@@ -7640,55 +7642,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111711</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>733.4550657171301</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>564.5188827892232</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>414.4022433768874</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E46" t="n">
-        <v>266.4891497944943</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F46" t="n">
-        <v>119.599202296584</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>120.1346509896242</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473698</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>118.3918499711859</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>215.1260109543629</v>
       </c>
       <c r="Y16" t="n">
-        <v>62.35543909864913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405066</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194143</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>101.6825818796766</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5874149221291134</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012152</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016444</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>181.727993418994</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>182.9484181982309</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>139.4693302300314</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>164.9286282187577</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.63391537253352</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25126,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>100.1408962629001</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.992517862817522</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25318,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>125.1956044930017</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>134.8730892594355</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>153.7108110197802</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>116.6691671648141</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25843,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>15.88259428919218</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>139.9994244361428</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>55.21102825632968</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>862142.5848348016</v>
+        <v>862142.584834802</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>862142.584834802</v>
+        <v>862142.5848348021</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>862142.5848348024</v>
+        <v>862142.5848348022</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>862142.584834802</v>
+        <v>862142.5848348021</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>862142.584834802</v>
+        <v>862142.5848348021</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>862142.584834802</v>
+        <v>862142.5848348021</v>
       </c>
     </row>
     <row r="16">
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830043</v>
@@ -26335,25 +26337,25 @@
         <v>565002.6197830045</v>
       </c>
       <c r="J2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="K2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>565002.6197830046</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830045</v>
       </c>
       <c r="M2" t="n">
         <v>565002.6197830043</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830043</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.6400068794</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="H4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>15436.64000687966</v>
       </c>
-      <c r="J4" t="n">
-        <v>15436.64000687993</v>
-      </c>
       <c r="K4" t="n">
-        <v>15436.64000687973</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="M4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="O4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="P4" t="n">
         <v>15436.64000687966</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="O4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15436.64000687971</v>
       </c>
     </row>
     <row r="5">
@@ -26522,46 +26524,46 @@
         <v>-955546.1914880397</v>
       </c>
       <c r="C6" t="n">
-        <v>373198.5542395528</v>
+        <v>373198.5542395527</v>
       </c>
       <c r="D6" t="n">
-        <v>373198.5542395529</v>
+        <v>373198.5542395527</v>
       </c>
       <c r="E6" t="n">
-        <v>123030.9881448623</v>
+        <v>123030.9881448626</v>
       </c>
       <c r="F6" t="n">
-        <v>448443.4499522178</v>
+        <v>448443.4499522175</v>
       </c>
       <c r="G6" t="n">
-        <v>448443.4499522179</v>
+        <v>448443.4499522175</v>
       </c>
       <c r="H6" t="n">
         <v>448443.4499522175</v>
       </c>
       <c r="I6" t="n">
-        <v>448443.4499522178</v>
+        <v>448443.4499522177</v>
       </c>
       <c r="J6" t="n">
-        <v>230912.24755494</v>
+        <v>230912.2475549403</v>
       </c>
       <c r="K6" t="n">
+        <v>448443.4499522177</v>
+      </c>
+      <c r="L6" t="n">
         <v>448443.4499522179</v>
       </c>
-      <c r="L6" t="n">
-        <v>448443.4499522178</v>
-      </c>
       <c r="M6" t="n">
-        <v>363388.4220167057</v>
+        <v>363388.4220167056</v>
       </c>
       <c r="N6" t="n">
         <v>448443.4499522178</v>
       </c>
       <c r="O6" t="n">
-        <v>448443.4499522174</v>
+        <v>448443.4499522178</v>
       </c>
       <c r="P6" t="n">
-        <v>448443.4499522179</v>
+        <v>448443.4499522175</v>
       </c>
     </row>
   </sheetData>
@@ -26793,7 +26795,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>341.3068326973555</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>341.3068326973557</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>126.0900396838149</v>
       </c>
       <c r="D2" t="n">
-        <v>279.225909459645</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>7.187665295695297</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,13 +27596,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>138.6927746197422</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.0670839124105</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>12.66894511512228</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>1.772586778758466</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27824,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27831,10 +27833,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>208.8644693282258</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27859,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>310.4011377631402</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>81.6297065479106</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27913,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>137.7773439539462</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>87.90934435801466</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29752,7 +29754,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29928,7 +29930,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>351.1157147121648</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>242.2322097768135</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,28 +32317,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32467,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32549,13 +32551,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32567,13 +32569,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32792,22 +32794,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33026,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,10 +33046,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33266,22 +33268,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33442,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33503,10 +33505,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209185</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33518,7 +33520,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33737,10 +33739,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>531.8166820790245</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33907,7 +33909,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.586862646002</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33968,22 +33970,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>639.8517673857162</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33995,7 +33997,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34211,10 +34213,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>537.6437863443698</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34363,10 +34365,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,22 +34453,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>213.2742757378059</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306611</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>103.6778299969394</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35963,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36215,13 +36217,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36440,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36674,16 +36676,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,10 +36694,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,13 +36755,13 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010539</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
@@ -36914,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37090,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>110.1905571410443</v>
       </c>
       <c r="M33" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37166,7 +37168,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326294884</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37385,10 +37387,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>393.2623022991504</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37470,7 +37472,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010406</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
@@ -37555,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243153</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37616,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>508.510055302383</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37643,7 +37645,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,10 +37861,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>395.0475418999253</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38011,10 +38013,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>132.4173135558164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1949670.128818413</v>
+        <v>1945657.51880442</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>239.1828520871927</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>232.360490578278</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851092</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824781</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>113.4448687040858</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>72.08802744677315</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>195.5565936082896</v>
       </c>
       <c r="I5" t="n">
-        <v>28.90798465780367</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>58.28185552386356</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>94.57983363107962</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>27.55805524026523</v>
+        <v>92.11587235770564</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>7.643704068985021</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>131.5522128412692</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722612</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>21.90286287505374</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1669,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>43.55707494718542</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>10.58364443467423</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2289,13 +2289,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2323,13 +2323,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>65.56423921895123</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
-        <v>70.40964990483397</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2952,19 +2952,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
-        <v>16.09765778288691</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>117.2645540643881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>100.736283162477</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>15.09910835322215</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>5.421623586788372</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>270.6404040473988</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>26.05480806223585</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2217.803762225667</v>
+        <v>1896.503151925173</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1527.540634984761</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1169.274936378011</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4330,10 +4330,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4348,7 +4348,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052369</v>
@@ -4357,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.542934265601</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W2" t="n">
-        <v>2994.542934265601</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X2" t="n">
-        <v>2994.542934265601</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y2" t="n">
-        <v>2604.403602289789</v>
+        <v>2283.102991989294</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218343</v>
@@ -4412,49 +4412,49 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>624.6477645191717</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>624.6477645191717</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>624.6477645191717</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V4" t="n">
-        <v>806.2962293494114</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W4" t="n">
-        <v>806.2962293494114</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X4" t="n">
-        <v>806.2962293494114</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y4" t="n">
-        <v>806.2962293494114</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796265</v>
+        <v>1517.887535471216</v>
       </c>
       <c r="C5" t="n">
-        <v>921.7704558796265</v>
+        <v>1517.887535471216</v>
       </c>
       <c r="D5" t="n">
-        <v>921.7704558796265</v>
+        <v>1517.887535471216</v>
       </c>
       <c r="E5" t="n">
-        <v>921.7704558796265</v>
+        <v>1132.099282872972</v>
       </c>
       <c r="F5" t="n">
-        <v>510.784551090019</v>
+        <v>721.1133780833643</v>
       </c>
       <c r="G5" t="n">
-        <v>95.71210093501543</v>
+        <v>306.0409279283608</v>
       </c>
       <c r="H5" t="n">
-        <v>95.71210093501543</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
@@ -4570,13 +4570,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="6">
@@ -4640,16 +4640,16 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
         <v>765.1517452158131</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>920.887005818185</v>
+        <v>739.2385409879453</v>
       </c>
       <c r="C7" t="n">
-        <v>920.887005818185</v>
+        <v>570.3023580600384</v>
       </c>
       <c r="D7" t="n">
-        <v>770.7703664058492</v>
+        <v>420.1857186477026</v>
       </c>
       <c r="E7" t="n">
-        <v>622.8572728234561</v>
+        <v>272.2726250653095</v>
       </c>
       <c r="F7" t="n">
-        <v>475.9673253255457</v>
+        <v>125.3826775673992</v>
       </c>
       <c r="G7" t="n">
-        <v>308.2644887002647</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>162.0473019181225</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1257.755181644084</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>888.7926647036722</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>530.5269660969217</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
         <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4804,19 +4804,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3297.76940217456</v>
+        <v>3232.559485894317</v>
       </c>
       <c r="T8" t="n">
-        <v>3091.791654558782</v>
+        <v>3026.581738278539</v>
       </c>
       <c r="U8" t="n">
-        <v>3091.791654558782</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="V8" t="n">
-        <v>2760.728767215212</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="W8" t="n">
-        <v>2407.960111945097</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="X8" t="n">
-        <v>2034.494353684017</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1644.355021708206</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.1461232155715</v>
+        <v>518.4459618444151</v>
       </c>
       <c r="C10" t="n">
-        <v>222.1461232155715</v>
+        <v>349.5097789165083</v>
       </c>
       <c r="D10" t="n">
-        <v>222.1461232155715</v>
+        <v>199.3931395041725</v>
       </c>
       <c r="E10" t="n">
-        <v>74.2330296331784</v>
+        <v>199.3931395041725</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>199.3931395041725</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>199.3931395041725</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218343</v>
@@ -4995,19 +4995,19 @@
         <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>631.7841389438286</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>631.7841389438286</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>631.7841389438286</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>403.7945880458112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
-        <v>403.7945880458112</v>
+        <v>700.0944266746549</v>
       </c>
     </row>
     <row r="11">
@@ -5026,28 +5026,28 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5059,13 +5059,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>198.027470314254</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>198.027470314254</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5232,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5317,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811333</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1353.195110654903</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511373</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>710.2486053718725</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>1307.627092998424</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2815.530845237133</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>3990.063098351768</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>3735.378610145881</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>3445.96144010892</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>3217.971889210903</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>2997.179310067373</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5971,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081859</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4151.857387650098</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>4080.736529160366</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>3791.319359123406</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>3563.329808225389</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>3342.537229081859</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>680.448174698413</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2363.657119445908</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.05565446885</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1854.980427813048</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1600.295939607161</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1310.8787695702</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1082.889218672183</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>862.0966395286528</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,64 +6688,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913445</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2381.235169913445</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>2490.323821483079</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3087.702309109631</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>3715.300272664238</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.6905094135296</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>700.7543264856228</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782912</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038298</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797699</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2078.61350097808</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1789.538274322277</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.131553387299</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>1051.338974243769</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7031,13 +7031,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.2707707770319</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C37" t="n">
-        <v>803.2707707770319</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D37" t="n">
-        <v>653.1541313646961</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E37" t="n">
-        <v>505.241037782303</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>358.3510902843926</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>191.1549909992726</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.701365648819</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.711814750802</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.9192356072716</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.4550657171301</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>564.5188827892232</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>414.4022433768874</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>266.4891497944943</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>266.4891497944943</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>99.29305050937427</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473698</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>784.5811134804959</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>615.644930552589</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>465.5282911402533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1415.011708352283</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1187.022157454266</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>966.2295783107356</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,10 +7636,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7648,10 +7648,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>261.8464821474262</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>261.8464821474262</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>261.8464821474262</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>261.8464821474262</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>120.1346509896242</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>118.3918499711701</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>105.0583980710269</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>215.1260109543629</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>40.32043864788574</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>101.6825818796766</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
-        <v>181.727993418994</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
-        <v>164.9286282187577</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25128,19 +25128,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>100.1408962629001</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>66.5105379361508</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>125.1956044930017</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>134.8730892594355</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>15.88259428919218</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>55.21102825632968</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>10.85445046951749</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>862142.5848348021</v>
+        <v>862142.584834802</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>862142.5848348021</v>
+        <v>862142.584834802</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>862142.5848348022</v>
+        <v>862142.584834802</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>862142.5848348021</v>
+        <v>862142.584834802</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>862142.5848348021</v>
+        <v>862142.584834802</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>862142.5848348021</v>
+        <v>862142.584834802</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="G2" t="n">
         <v>565002.6197830043</v>
       </c>
       <c r="H2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="I2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="J2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="J2" t="n">
-        <v>565002.6197830046</v>
-      </c>
       <c r="K2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="L2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="L2" t="n">
-        <v>565002.6197830046</v>
-      </c>
       <c r="M2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="F4" t="n">
         <v>15436.64000687966</v>
@@ -26435,13 +26435,13 @@
         <v>15436.64000687966</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687967</v>
@@ -26453,13 +26453,13 @@
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687971</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-955546.1914880397</v>
+        <v>-955546.1914880398</v>
       </c>
       <c r="C6" t="n">
-        <v>373198.5542395527</v>
+        <v>373198.5542395531</v>
       </c>
       <c r="D6" t="n">
-        <v>373198.5542395527</v>
+        <v>373198.5542395528</v>
       </c>
       <c r="E6" t="n">
-        <v>123030.9881448626</v>
+        <v>122683.6088905054</v>
       </c>
       <c r="F6" t="n">
-        <v>448443.4499522175</v>
+        <v>448096.0706978606</v>
       </c>
       <c r="G6" t="n">
-        <v>448443.4499522175</v>
+        <v>448096.0706978605</v>
       </c>
       <c r="H6" t="n">
-        <v>448443.4499522175</v>
+        <v>448096.0706978607</v>
       </c>
       <c r="I6" t="n">
-        <v>448443.4499522177</v>
+        <v>448096.0706978606</v>
       </c>
       <c r="J6" t="n">
-        <v>230912.2475549403</v>
+        <v>230564.8683005832</v>
       </c>
       <c r="K6" t="n">
-        <v>448443.4499522177</v>
+        <v>448096.0706978606</v>
       </c>
       <c r="L6" t="n">
-        <v>448443.4499522179</v>
+        <v>448096.0706978607</v>
       </c>
       <c r="M6" t="n">
-        <v>363388.4220167056</v>
+        <v>363041.0427623489</v>
       </c>
       <c r="N6" t="n">
-        <v>448443.4499522178</v>
+        <v>448096.0706978608</v>
       </c>
       <c r="O6" t="n">
-        <v>448443.4499522178</v>
+        <v>448096.0706978606</v>
       </c>
       <c r="P6" t="n">
-        <v>448443.4499522175</v>
+        <v>448096.0706978607</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26798,7 +26798,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>126.0900396838149</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>149.5698794939838</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27596,13 +27596,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>138.6927746197422</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>153.621627942264</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>99.05117077903085</v>
       </c>
       <c r="I5" t="n">
-        <v>12.66894511512228</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>1.772586778758466</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>81.6297065479106</v>
+        <v>17.07188943047019</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>137.7773439539462</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>13.2028020730516</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>5.844418180573881e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -29754,7 +29754,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29930,7 +29930,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31843,13 +31843,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M12" t="n">
-        <v>583.1096135868578</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31861,10 +31861,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,19 +32074,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>246.2467565146294</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32098,7 +32098,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32250,7 +32250,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
         <v>790.8204499236507</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,13 +32320,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>610.054682604365</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32335,10 +32335,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q21" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>363.5371514786841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>431.3680753731354</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33432,7 +33432,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460027</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>248.7449369209185</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,31 +33970,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34368,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M12" t="n">
-        <v>440.9755796648395</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35509,10 +35509,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35746,7 +35746,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>471.5003028244908</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35983,10 +35983,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q21" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>110.1905571410443</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326294884</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1945657.51880442</v>
+        <v>1947418.049107206</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>232.360490578278</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -715,7 +715,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>336.0483602400589</v>
       </c>
     </row>
     <row r="3">
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>101.7384833580005</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>72.08802744677315</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>195.5565936082887</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>195.5565936082896</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>72.08802744677224</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>58.28185552386356</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>92.11587235770564</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>95.04093514013014</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1299,16 +1299,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>131.5522128412692</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722612</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>43.55707494718542</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>93.07916359105417</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2007,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>23.10998325717174</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>123.7971820797026</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>20.92847288552849</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7122866515512</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>179.2499669408062</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>100.736283162477</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3474,19 +3474,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>286.142551756775</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>18.16423677622371</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>55.5207962406042</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1896.503151925173</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C2" t="n">
-        <v>1527.540634984761</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1169.274936378011</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
         <v>934.5673701373257</v>
@@ -4342,10 +4342,10 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
@@ -4363,19 +4363,19 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W2" t="n">
-        <v>2656.568750250374</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X2" t="n">
-        <v>2283.102991989294</v>
+        <v>2029.572515263131</v>
       </c>
       <c r="Y2" t="n">
-        <v>2283.102991989294</v>
+        <v>1690.129727141859</v>
       </c>
     </row>
     <row r="3">
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>631.784138943829</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>631.784138943829</v>
       </c>
       <c r="D4" t="n">
         <v>529.0179941377679</v>
@@ -4521,19 +4521,19 @@
         <v>920.8870058181855</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181855</v>
+        <v>631.784138943829</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181855</v>
+        <v>631.784138943829</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181855</v>
+        <v>631.784138943829</v>
       </c>
       <c r="X4" t="n">
-        <v>848.0708164780106</v>
+        <v>631.784138943829</v>
       </c>
       <c r="Y4" t="n">
-        <v>848.0708164780106</v>
+        <v>631.784138943829</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1517.887535471216</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="C5" t="n">
-        <v>1517.887535471216</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="D5" t="n">
-        <v>1517.887535471216</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1132.099282872972</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>721.1133780833643</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>306.0409279283608</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4600,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796418</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535338</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1904.487375535338</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064554</v>
@@ -4646,13 +4646,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>739.2385409879453</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>570.3023580600384</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>420.1857186477026</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>272.2726250653095</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>125.3826775673992</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1285.277735635578</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="D8" t="n">
         <v>916.3152186951659</v>
@@ -4792,7 +4792,7 @@
         <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4801,10 +4801,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3232.559485894317</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3026.581738278539</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2773.051261552376</v>
+        <v>3119.314208550276</v>
       </c>
       <c r="V8" t="n">
-        <v>2773.051261552376</v>
+        <v>2788.251321206705</v>
       </c>
       <c r="W8" t="n">
-        <v>2420.282606282261</v>
+        <v>2435.482665936591</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>2062.016907675511</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>1671.877575699699</v>
       </c>
     </row>
     <row r="9">
@@ -4874,16 +4874,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.4459618444151</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>349.5097789165083</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>199.3931395041725</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>199.3931395041725</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>199.3931395041725</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>199.3931395041725</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4971,43 +4971,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>700.0944266746549</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5026,13 +5026,13 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5044,10 +5044,10 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5059,13 +5059,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5317,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,19 +5360,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>762.5477693179085</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>593.6115863900017</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888043</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5481,7 +5481,7 @@
         <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5500,25 +5500,25 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5597,19 +5597,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
@@ -5740,10 +5740,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5846,7 +5846,7 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6083,7 +6083,7 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6138,7 +6138,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6217,37 +6217,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6408,13 +6408,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
         <v>1746.193029533436</v>
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6700,10 +6700,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075813</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>733.4550657171301</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C37" t="n">
-        <v>631.7012443408906</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408906</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
         <v>484.8112968429803</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588917</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.1035305473698</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7359,25 +7359,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2336.956424518383</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>105.0583980710269</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
     </row>
     <row r="17">
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>125.5054897610406</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>57.229103921942</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>60.33736343303704</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>72.11969353038612</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>66.5105379361508</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>0.3804465798160095</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>127.2568112467075</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>10.85445046951749</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>862142.5848348021</v>
+        <v>862142.584834802</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>862142.584834802</v>
+        <v>862142.5848348021</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>862142.5848348021</v>
+        <v>862142.5848348022</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>862142.5848348021</v>
+        <v>862142.584834802</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>862142.584834802</v>
+        <v>862142.5848348021</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="F2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="G2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="G2" t="n">
-        <v>565002.6197830043</v>
-      </c>
       <c r="H2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="I2" t="n">
         <v>565002.6197830044</v>
@@ -26340,7 +26340,7 @@
         <v>565002.6197830045</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="L2" t="n">
         <v>565002.6197830045</v>
@@ -26349,13 +26349,13 @@
         <v>565002.6197830045</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="O2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>93596.7441040525</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
         <v>15436.64000687967</v>
@@ -26453,7 +26453,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687971</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687967</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-955546.1914880398</v>
+        <v>-955546.1914880399</v>
       </c>
       <c r="C6" t="n">
-        <v>373198.5542395531</v>
+        <v>373198.5542395533</v>
       </c>
       <c r="D6" t="n">
-        <v>373198.5542395528</v>
+        <v>373198.5542395525</v>
       </c>
       <c r="E6" t="n">
-        <v>122683.6088905054</v>
+        <v>122996.2502194268</v>
       </c>
       <c r="F6" t="n">
-        <v>448096.0706978606</v>
+        <v>448408.712026782</v>
       </c>
       <c r="G6" t="n">
-        <v>448096.0706978605</v>
+        <v>448408.7120267819</v>
       </c>
       <c r="H6" t="n">
-        <v>448096.0706978607</v>
+        <v>448408.7120267819</v>
       </c>
       <c r="I6" t="n">
-        <v>448096.0706978606</v>
+        <v>448408.7120267819</v>
       </c>
       <c r="J6" t="n">
-        <v>230564.8683005832</v>
+        <v>230877.5096295045</v>
       </c>
       <c r="K6" t="n">
-        <v>448096.0706978606</v>
+        <v>448408.712026782</v>
       </c>
       <c r="L6" t="n">
-        <v>448096.0706978607</v>
+        <v>448408.712026782</v>
       </c>
       <c r="M6" t="n">
-        <v>363041.0427623489</v>
+        <v>363353.6840912702</v>
       </c>
       <c r="N6" t="n">
-        <v>448096.0706978608</v>
+        <v>448408.7120267819</v>
       </c>
       <c r="O6" t="n">
-        <v>448096.0706978606</v>
+        <v>448408.7120267819</v>
       </c>
       <c r="P6" t="n">
-        <v>448096.0706978607</v>
+        <v>448408.7120267819</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26792,13 +26792,13 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>149.5698794939838</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>50.18957841599467</v>
       </c>
     </row>
     <row r="3">
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>46.87698966021186</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>153.621627942264</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>159.1264480123943</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>99.05117077903085</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>107.7439527351651</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>107.7439527351647</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>17.07188943047019</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>155.9542368187718</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>13.2028020730516</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="11">
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>5.844418180573881e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31846,19 +31846,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32080,10 +32080,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>246.2467565146294</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,10 +32092,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32232,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32250,7 +32250,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
         <v>790.8204499236507</v>
@@ -32317,10 +32317,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>246.9596973201446</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33420,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33432,7 +33432,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460027</v>
@@ -33654,13 +33654,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>376.3054212373396</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35728,10 +35728,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>108.4053175402704</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,10 +35740,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35898,7 +35898,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35965,10 +35965,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>108.4053175402704</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37080,7 +37080,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37302,13 +37302,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
